--- a/Chatbot - Agendamento de Clientes/Chatbot-JS/Chatbot/Banco de Dados - EXCEL/Base de Dados Clientes/base-clientes.xlsx
+++ b/Chatbot - Agendamento de Clientes/Chatbot-JS/Chatbot/Banco de Dados - EXCEL/Base de Dados Clientes/base-clientes.xlsx
@@ -716,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,10 +724,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1055,44 +1058,44 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24.7" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.7" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.2" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.2" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.9" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="26.2" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1103,7 +1106,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1112,7 +1115,7 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1129,7 +1132,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1138,7 +1141,7 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1155,7 +1158,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1164,7 +1167,7 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1181,7 +1184,7 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1190,7 +1193,7 @@
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>400</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1207,7 +1210,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1216,7 +1219,7 @@
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">

--- a/Chatbot - Agendamento de Clientes/Chatbot-JS/Chatbot/Banco de Dados - EXCEL/Base de Dados Clientes/base-clientes.xlsx
+++ b/Chatbot - Agendamento de Clientes/Chatbot-JS/Chatbot/Banco de Dados - EXCEL/Base de Dados Clientes/base-clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Data Atendimento</t>
   </si>
@@ -46,28 +46,31 @@
     <t>Anakin Skywalker</t>
   </si>
   <si>
+    <t>5521999289987</t>
+  </si>
+  <si>
+    <t>Fazer Moicano</t>
+  </si>
+  <si>
+    <t>Cabelo</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Obi Wan Kenobi</t>
+  </si>
+  <si>
     <t>11999999999</t>
   </si>
   <si>
-    <t>Fazer Moicano</t>
-  </si>
-  <si>
-    <t>Cabelo</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
     <t>PEDRO</t>
-  </si>
-  <si>
-    <t>5521999289987</t>
   </si>
   <si>
     <t>Pintar Cabelo Loiro</t>
@@ -81,11 +84,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,25 +106,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,7 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,6 +154,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +183,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -163,6 +221,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -171,46 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,30 +245,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,49 +265,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,133 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +470,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,215 +566,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,16 +727,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,7 +1061,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1106,7 +1109,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1130,10 +1133,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1159,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1182,16 +1185,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
         <v>400</v>
@@ -1211,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
